--- a/data/trans_bre/P23_DUKE_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,05</t>
+          <t>-7,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-33,6%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>-8,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-6,18%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,58%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 2,82</t>
+          <t>-17,6; 3,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 3,54</t>
+          <t>-7,18; 7,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 16,02</t>
+          <t>-12,01; 2,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 2,13</t>
+          <t>-13,07; 5,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,12; 17,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 18,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 94,17</t>
+          <t>-19,79; 4,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 2,53</t>
+          <t>-8,02; 9,89</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-13,5; 2,83</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-13,78; 6,31</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,82%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,55%</t>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,43%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 10,38</t>
+          <t>-3,01; 12,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 3,58</t>
+          <t>-2,44; 8,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 6,47</t>
+          <t>-2,37; 8,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 1,08</t>
+          <t>-6,26; 5,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 79,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,89; 25,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 43,71</t>
+          <t>-3,51; 16,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 1,22</t>
+          <t>-2,62; 11,01</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 10,1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 6,92</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>-1,17%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 4,2</t>
+          <t>4,41; 18,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 5,39</t>
+          <t>-5,78; 4,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 7,31</t>
+          <t>-1,63; 8,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 14,68</t>
+          <t>-4,57; 6,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,83; 42,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 67,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 69,01</t>
+          <t>5,43; 26,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 20,92</t>
+          <t>-6,34; 5,51</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 10,37</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 8,38</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,71%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>-3,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,77%</t>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-0,15%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,67</t>
+          <t>-8,08; 2,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 2,39</t>
+          <t>-5,94; 7,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 6,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 2,26</t>
+          <t>-7,15; 7,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 34,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 17,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 42,57</t>
+          <t>-9,45; 3,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 2,71</t>
+          <t>-7,03; 8,93</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-7,97; 9,32</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,3%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 5,58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 4,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 4,57</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 3,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 7,03</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 4,85</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 5,56</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 3,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_DUKE_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,28</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,25</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-8,42%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,57%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-6,18%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-3,58%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-7.688065302147306</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4337608010946403</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.430609929269171</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-3.224424000077686</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.08991099758280029</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.005123769543125392</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.06379502780224416</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.03558514465524891</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,6; 3,83</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 7,96</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,01; 2,37</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,07; 5,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-19,79; 4,67</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-8,02; 9,89</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-13,5; 2,83</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-13,78; 6,31</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-17.99909785375164</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.071059449753657</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.59098040293923</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-13.38224529026045</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.2021301609613668</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.07928672885174695</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1433067670111932</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1406674122387882</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.221669071240017</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.980977237029172</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.373001021728759</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.70711128268101</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.03664129049448439</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.09946848947963539</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.02756332703180231</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.06646692565381845</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>4,68%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,79%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,5%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-0,43%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; 12,07</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 8,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 8,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,26; 5,72</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 16,19</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-2,62; 11,01</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 10,1</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; 6,92</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>3.611641229873175</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.672518987772611</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.93074918745958</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.06774350043059485</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.04473356129086428</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.04358286053447126</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.03566376049599242</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.0007865121668799418</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,48</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>14,62%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-1,17%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.273638635696794</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.86831094766954</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.422753675012077</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.927280085443525</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.03823699673812425</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.02114708511699955</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.02873653528193006</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.0667733160577927</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 18,91</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,78; 4,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 8,36</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 6,9</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>5,43; 26,44</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-6,34; 5,51</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 10,37</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-5,18; 8,38</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.63013804361922</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.271414451557277</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.005145647532586</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.240938400307106</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.1538865267737942</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1156045396724758</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.09985248399864703</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.07515881215611156</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,08</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-3,65%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-0,15%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>12.28253163455781</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.9483537647442475</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.03848596592784</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.9737123706801909</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1581622635129027</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.01077935669206266</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.03589224144202467</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.01131647904883581</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; 2,59</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,94; 7,13</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-7,15; 7,69</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-9,45; 3,26</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-7,03; 8,93</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-7,97; 9,32</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>4.740059789222329</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.6302152622574</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.842524164995952</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.825269291584781</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>0.05673207022576428</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.06214563517321166</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.0210788493325454</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.05327692131345082</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>21.28555381709678</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.804018078126606</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.864479038912197</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.617870625717434</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.3064648551490265</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.05683754022174538</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.09654545304797564</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.08027074005950781</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,94%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,37%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-0,3%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,0; 5,58</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,77; 4,02</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 4,57</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 3,37</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 7,03</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 4,85</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-1,93; 5,56</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; 3,98</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.861614307180639</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.418175339589633</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.157631120762093</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2364079710466926</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.06052975596418882</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.01656394299675076</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.01385066950015535</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.002719769891769666</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.1068618883693242</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.882581994592728</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.948631826208106</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.136854042994935</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.00179330837871388</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.02120768407292948</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.0227862573965595</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.04616476850888705</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.65078956259961</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.14047067085188</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.374825826721204</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.602391441464296</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.1400724663840975</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.06209544220005751</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.05366277492434442</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.04237303141579678</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
